--- a/docs/v-表A.1  0 岁～6 岁儿童发育行为评估量表（儿心量表- Ⅱ).xlsx
+++ b/docs/v-表A.1  0 岁～6 岁儿童发育行为评估量表（儿心量表- Ⅱ).xlsx
@@ -3655,7 +3655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3673,6 +3673,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -3813,7 +3835,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3825,34 +3847,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3937,7 +3959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3959,25 +3981,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5351,7 +5382,7 @@
   <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8"/>
@@ -5365,7 +5396,7 @@
     <col min="7" max="7" width="28.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.45" customHeight="1" spans="1:7">
+    <row r="1" ht="11.45" customHeight="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5382,9 +5413,83 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="8"/>
     </row>
     <row r="2" ht="12.35" customHeight="1" spans="1:35">
       <c r="A2" s="2"/>
@@ -5393,81 +5498,35 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
     </row>
     <row r="3" ht="15.5" customHeight="1" spans="1:35">
       <c r="A3" s="1" t="s">
@@ -5482,7 +5541,7 @@
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
@@ -5498,7 +5557,7 @@
       <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="3" t="s">
         <v>38</v>
       </c>
@@ -5511,30 +5570,30 @@
       <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="Q3" s="6"/>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="13" t="s">
         <v>43</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="W3" s="6"/>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="13" t="s">
         <v>49</v>
       </c>
       <c r="Z3" s="3" t="s">
@@ -5546,7 +5605,7 @@
       <c r="AB3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="8"/>
+      <c r="AC3" s="11"/>
       <c r="AD3" s="3" t="s">
         <v>53</v>
       </c>
@@ -5562,7 +5621,7 @@
       <c r="AH3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="8"/>
+      <c r="AI3" s="11"/>
     </row>
     <row r="4" ht="15.5" customHeight="1" spans="1:35">
       <c r="A4" s="2"/>
@@ -5575,7 +5634,7 @@
       <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
@@ -5591,7 +5650,7 @@
       <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5627,7 +5686,7 @@
       <c r="AB4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC4" s="8"/>
+      <c r="AC4" s="11"/>
       <c r="AD4" s="3" t="s">
         <v>75</v>
       </c>
@@ -5643,7 +5702,7 @@
       <c r="AH4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AI4" s="8"/>
+      <c r="AI4" s="11"/>
     </row>
     <row r="5" ht="15.5" customHeight="1" spans="1:35">
       <c r="A5" s="1" t="s">
@@ -5658,7 +5717,7 @@
       <c r="D5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3" t="s">
         <v>84</v>
       </c>
@@ -5674,14 +5733,14 @@
       <c r="J5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="13" t="s">
         <v>91</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -5690,14 +5749,14 @@
       <c r="P5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="10" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="13" t="s">
         <v>94</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="13" t="s">
         <v>96</v>
       </c>
       <c r="U5" s="3" t="s">
@@ -5706,7 +5765,7 @@
       <c r="V5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="8"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="3" t="s">
         <v>99</v>
       </c>
@@ -5722,7 +5781,7 @@
       <c r="AB5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC5" s="8"/>
+      <c r="AC5" s="11"/>
       <c r="AD5" s="3" t="s">
         <v>104</v>
       </c>
@@ -5738,7 +5797,7 @@
       <c r="AH5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AI5" s="8"/>
+      <c r="AI5" s="11"/>
     </row>
     <row r="6" ht="15.5" customHeight="1" spans="1:35">
       <c r="A6" s="2"/>
@@ -5751,7 +5810,7 @@
       <c r="D6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="3" t="s">
         <v>112</v>
       </c>
@@ -5767,7 +5826,7 @@
       <c r="J6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="3" t="s">
         <v>117</v>
       </c>
@@ -5779,7 +5838,7 @@
       <c r="P6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6"/>
       <c r="S6" s="3" t="s">
         <v>120</v>
@@ -5791,7 +5850,7 @@
       <c r="V6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="3" t="s">
         <v>123</v>
       </c>
@@ -5807,7 +5866,7 @@
       <c r="AB6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AC6" s="8"/>
+      <c r="AC6" s="11"/>
       <c r="AD6" s="3" t="s">
         <v>128</v>
       </c>
@@ -5823,7 +5882,7 @@
       <c r="AH6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AI6" s="8"/>
+      <c r="AI6" s="11"/>
     </row>
     <row r="7" ht="15.5" customHeight="1" spans="1:35">
       <c r="A7" s="1" t="s">
@@ -5838,7 +5897,7 @@
       <c r="D7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="3" t="s">
         <v>137</v>
       </c>
@@ -5854,7 +5913,7 @@
       <c r="J7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="3" t="s">
         <v>142</v>
       </c>
@@ -5864,13 +5923,13 @@
       <c r="N7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="13" t="s">
         <v>145</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="3" t="s">
         <v>147</v>
       </c>
@@ -5886,7 +5945,7 @@
       <c r="V7" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="3" t="s">
         <v>152</v>
       </c>
@@ -5902,7 +5961,7 @@
       <c r="AB7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AC7" s="8"/>
+      <c r="AC7" s="11"/>
       <c r="AD7" s="3" t="s">
         <v>157</v>
       </c>
@@ -5918,7 +5977,7 @@
       <c r="AH7" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AI7" s="8"/>
+      <c r="AI7" s="11"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" spans="1:35">
       <c r="A8" s="2"/>
@@ -5931,7 +5990,7 @@
       <c r="D8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="4" t="s">
         <v>165</v>
       </c>
@@ -5947,7 +6006,7 @@
       <c r="J8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="3" t="s">
         <v>170</v>
       </c>
@@ -5961,7 +6020,7 @@
       <c r="P8" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="3" t="s">
         <v>174</v>
       </c>
@@ -5977,7 +6036,7 @@
       <c r="V8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="W8" s="8"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="3" t="s">
         <v>179</v>
       </c>
@@ -5993,7 +6052,7 @@
       <c r="AB8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AC8" s="8"/>
+      <c r="AC8" s="11"/>
       <c r="AD8" s="3" t="s">
         <v>184</v>
       </c>
@@ -6009,7 +6068,7 @@
       <c r="AH8" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AI8" s="8"/>
+      <c r="AI8" s="11"/>
     </row>
     <row r="9" ht="15.5" customHeight="1" spans="1:35">
       <c r="A9" s="1" t="s">
@@ -6040,7 +6099,7 @@
       <c r="J9" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="4" t="s">
         <v>198</v>
       </c>
@@ -6056,7 +6115,7 @@
       <c r="P9" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="3" t="s">
         <v>203</v>
       </c>
@@ -6072,7 +6131,7 @@
       <c r="V9" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="W9" s="8"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="3" t="s">
         <v>208</v>
       </c>
@@ -6088,7 +6147,7 @@
       <c r="AB9" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AC9" s="8"/>
+      <c r="AC9" s="11"/>
       <c r="AD9" s="3" t="s">
         <v>213</v>
       </c>
@@ -6104,7 +6163,7 @@
       <c r="AH9" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AI9" s="8"/>
+      <c r="AI9" s="11"/>
     </row>
     <row r="10" ht="15.5" customHeight="1" spans="1:35">
       <c r="A10" s="2"/>
@@ -6127,7 +6186,7 @@
       <c r="J10" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="4" t="s">
         <v>223</v>
       </c>
@@ -6141,7 +6200,7 @@
       <c r="P10" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="4" t="s">
         <v>227</v>
       </c>
@@ -6157,7 +6216,7 @@
       <c r="V10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="11"/>
       <c r="X10" s="3" t="s">
         <v>232</v>
       </c>
@@ -6173,7 +6232,7 @@
       <c r="AB10" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AC10" s="8"/>
+      <c r="AC10" s="11"/>
       <c r="AD10" s="3" t="s">
         <v>237</v>
       </c>
@@ -6189,7 +6248,7 @@
       <c r="AH10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AI10" s="8"/>
+      <c r="AI10" s="11"/>
     </row>
     <row r="11" ht="15.5" customHeight="1" spans="1:35">
       <c r="A11" s="1" t="s">
@@ -6204,7 +6263,7 @@
       <c r="D11" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="3" t="s">
         <v>246</v>
       </c>
@@ -6217,7 +6276,7 @@
       <c r="I11" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>250</v>
       </c>
       <c r="K11" s="6"/>
@@ -6252,7 +6311,7 @@
       <c r="V11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="W11" s="8"/>
+      <c r="W11" s="11"/>
       <c r="X11" s="3" t="s">
         <v>261</v>
       </c>
@@ -6268,8 +6327,8 @@
       <c r="AB11" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="10" t="s">
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="13" t="s">
         <v>266</v>
       </c>
       <c r="AE11" s="3" t="s">
@@ -6284,7 +6343,7 @@
       <c r="AH11" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AI11" s="8"/>
+      <c r="AI11" s="11"/>
     </row>
     <row r="12" ht="15.25" customHeight="1" spans="1:35">
       <c r="A12" s="2"/>
@@ -6297,7 +6356,7 @@
       <c r="D12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="4" t="s">
         <v>274</v>
       </c>
@@ -6330,20 +6389,20 @@
       <c r="S12" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="12" t="s">
+      <c r="W12" s="16"/>
+      <c r="X12" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="Y12" s="12" t="s">
+      <c r="Y12" s="15" t="s">
         <v>287</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -6355,7 +6414,7 @@
       <c r="AB12" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="AC12" s="8"/>
+      <c r="AC12" s="11"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="3" t="s">
         <v>291</v>
@@ -6369,15 +6428,10 @@
       <c r="AH12" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AI12" s="8"/>
+      <c r="AI12" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AH2:AI2"/>
+  <mergeCells count="103">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="AB3:AC3"/>
@@ -6439,20 +6493,43 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="D1:E2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="AB1:AC2"/>
+    <mergeCell ref="AH1:AI2"/>
     <mergeCell ref="D9:E10"/>
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="P11:Q12"/>
